--- a/Tiempos de ejecucion y idle.xlsx
+++ b/Tiempos de ejecucion y idle.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Proyects\collaborative_reinforcement_learning-QLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107F5CDF-1FCD-4256-AE05-D3E36B461B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD940CC-C8D2-4D26-B7D9-86B37EE538F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{254E1862-AD36-4A9A-9156-D28BB1E00423}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{254E1862-AD36-4A9A-9156-D28BB1E00423}"/>
   </bookViews>
   <sheets>
     <sheet name="Referencias" sheetId="5" r:id="rId1"/>
     <sheet name="CartPole-v1" sheetId="4" r:id="rId2"/>
     <sheet name="FlappyBird-v0" sheetId="2" r:id="rId3"/>
     <sheet name="LunarLander-v2" sheetId="3" r:id="rId4"/>
+    <sheet name="Speedup" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="32">
   <si>
     <t>real</t>
   </si>
@@ -66,9 +67,6 @@
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>1 Nodo (Master y Esclavo conjunto)</t>
   </si>
   <si>
     <t>3 Nodos (1 Master 2 Esclavos)</t>
@@ -115,13 +113,38 @@
   <si>
     <t>Nota: Los valores de tiempo de las tablas siguientes estan representadas en segundos.</t>
   </si>
+  <si>
+    <t>CartPole-v1</t>
+  </si>
+  <si>
+    <t>Nodos</t>
+  </si>
+  <si>
+    <t>FlappyBird-v0</t>
+  </si>
+  <si>
+    <t>LunarLander-v2</t>
+  </si>
+  <si>
+    <t>Speedup (Para 10000 Episodios)</t>
+  </si>
+  <si>
+    <t>Lineal</t>
+  </si>
+  <si>
+    <t>Eficiencia (Para 10000 Episodios)</t>
+  </si>
+  <si>
+    <t>1 Nodo (Algoritmo secuencial)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -174,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -215,11 +238,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -241,50 +277,65 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="70">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -300,6 +351,36 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -320,6 +401,36 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -345,24 +456,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -425,85 +540,24 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4842,6 +4896,672 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-UY"/>
+              <a:t>Gráfico de Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedup!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CartPole-v1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedup!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedup!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7301356918015331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2767833265571022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0958234135070786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF17-4EAB-A43A-78AA32C9C8F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedup!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FlappyBird-v0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedup!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedup!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2211737495967023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0900909019603917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.68615941169947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF17-4EAB-A43A-78AA32C9C8F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedup!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LunarLander-v2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedup!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedup!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1424215706626111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8940571042859791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4739985108861982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BF17-4EAB-A43A-78AA32C9C8F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedup!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lineal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="84000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speedup!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speedup!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BF17-4EAB-A43A-78AA32C9C8F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1292942703"/>
+        <c:axId val="1292931183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1292942703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1292931183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1292931183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1292942703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5082,6 +5802,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7747,6 +8507,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8341,8 +9617,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E802C0-B610-4C6E-0B20-34F711A4AEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8362,11 +9675,11 @@
   <autoFilter ref="A5:F7" xr:uid="{045EA1B6-EDDA-4649-A56F-A30FF1651660}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{25B78F90-B2E6-49BB-BC07-21919F23E7D8}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{C337041E-8F74-46E7-9F83-E6E9B800E8FE}" name="500" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A4D071B3-6CC8-43D9-8E3D-B9995DA4BD58}" name="1000" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{1F163502-365F-4091-A5F0-9BC236B08512}" name="2500" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D37AF71F-78A5-48EA-9DDE-F5439330E809}" name="5000" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{237088F6-A586-41CF-B72F-AB7D07C07376}" name="10000" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C337041E-8F74-46E7-9F83-E6E9B800E8FE}" name="500" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A4D071B3-6CC8-43D9-8E3D-B9995DA4BD58}" name="1000" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{1F163502-365F-4091-A5F0-9BC236B08512}" name="2500" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{D37AF71F-78A5-48EA-9DDE-F5439330E809}" name="5000" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{237088F6-A586-41CF-B72F-AB7D07C07376}" name="10000" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8377,11 +9690,11 @@
   <autoFilter ref="A11:F16" xr:uid="{FA4B38FC-5D89-4E91-8BB7-842364078A2B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A0732C43-D725-44AD-9225-3ECB343312CC}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{A0DAA05B-262C-4749-9F0E-AD723E2D28DC}" name="500" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{4AE1286B-B223-4C6C-81BB-ADF9A3B95DC0}" name="1000" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{AC910F37-0A33-4B42-A3CF-643F55FF7C01}" name="2500" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{2CDEA643-A440-4CC1-B589-634B6520CCC4}" name="5000" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{7491496A-9D42-4378-A98D-A309E9EEA760}" name="10000" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{A0DAA05B-262C-4749-9F0E-AD723E2D28DC}" name="500" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4AE1286B-B223-4C6C-81BB-ADF9A3B95DC0}" name="1000" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{AC910F37-0A33-4B42-A3CF-643F55FF7C01}" name="2500" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2CDEA643-A440-4CC1-B589-634B6520CCC4}" name="5000" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{7491496A-9D42-4378-A98D-A309E9EEA760}" name="10000" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8392,11 +9705,11 @@
   <autoFilter ref="A20:F25" xr:uid="{819384DC-C7B3-45DF-9578-6E73BF9F547F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{050CAC3F-CA4E-45E0-BAAC-FC6884398A65}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{FC239B98-D42B-4F8C-BB70-6456E4854979}" name="500" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F72D243F-7B26-4D4C-BAF1-D4E40B71A188}" name="1000" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D826852E-D473-4C9F-866C-544FA7894C8F}" name="2500" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C0A8838D-8744-4AF2-9534-D4B160EB4210}" name="5000" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F4DA7B3E-127E-4387-8F5B-9613AB4CE250}" name="10000" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FC239B98-D42B-4F8C-BB70-6456E4854979}" name="500" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F72D243F-7B26-4D4C-BAF1-D4E40B71A188}" name="1000" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D826852E-D473-4C9F-866C-544FA7894C8F}" name="2500" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C0A8838D-8744-4AF2-9534-D4B160EB4210}" name="5000" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F4DA7B3E-127E-4387-8F5B-9613AB4CE250}" name="10000" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8407,11 +9720,41 @@
   <autoFilter ref="A29:F34" xr:uid="{F44BAAEF-3079-40D4-8ACC-5EA9601727C7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{37FCA2D6-8A6C-4445-B074-BACFFB088ECF}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{2E000F2B-A4D4-4939-9E38-01FC26710B3D}" name="500" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{F8FA24A8-0D47-41A4-9703-C8C20B2041E2}" name="1000" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{55ACD8FE-E23C-445C-A6B6-60738CDAB46B}" name="2500" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{4307E52A-D34C-4EAD-B29D-EF4103EEC302}" name="5000" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{79A88373-0DFD-40C0-BA15-3FC144BB03D7}" name="10000" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{2E000F2B-A4D4-4939-9E38-01FC26710B3D}" name="500" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F8FA24A8-0D47-41A4-9703-C8C20B2041E2}" name="1000" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{55ACD8FE-E23C-445C-A6B6-60738CDAB46B}" name="2500" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4307E52A-D34C-4EAD-B29D-EF4103EEC302}" name="5000" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{79A88373-0DFD-40C0-BA15-3FC144BB03D7}" name="10000" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{81EF45D0-F939-4FE1-B35C-87A56501098F}" name="Tabla9" displayName="Tabla9" ref="A2:E6" totalsRowShown="0">
+  <autoFilter ref="A2:E6" xr:uid="{81EF45D0-F939-4FE1-B35C-87A56501098F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B42002EE-5BF2-4B5C-9616-4E336597CCF2}" name="Nodos"/>
+    <tableColumn id="2" xr3:uid="{B4EF37FC-66C5-4272-8993-599046AA8632}" name="CartPole-v1"/>
+    <tableColumn id="3" xr3:uid="{14001E61-39CD-403F-93DD-81ABEABB9BC5}" name="FlappyBird-v0"/>
+    <tableColumn id="4" xr3:uid="{FB8C215F-16D1-4F21-A4F3-C5EC2DBF1BB5}" name="LunarLander-v2"/>
+    <tableColumn id="5" xr3:uid="{C8B4D83B-24C7-415A-A9AD-E9F790A3C29B}" name="Lineal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EDB89C1E-07F1-4708-88BD-ABFD55898C50}" name="Tabla911" displayName="Tabla911" ref="A9:E13" totalsRowShown="0">
+  <autoFilter ref="A9:E13" xr:uid="{EDB89C1E-07F1-4708-88BD-ABFD55898C50}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AD7E81CB-9CF3-4F1A-A17C-F2F075DC075C}" name="Nodos"/>
+    <tableColumn id="2" xr3:uid="{A5934266-D479-435F-B7D1-82B5045B2E1F}" name="CartPole-v1" dataDxfId="0">
+      <calculatedColumnFormula>B3/Tabla911[[#This Row],[Nodos]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BA5C7BFD-8460-4500-A92B-12710D1EC3F5}" name="FlappyBird-v0"/>
+    <tableColumn id="4" xr3:uid="{B670E838-DDA3-4366-9285-D30951A3710D}" name="LunarLander-v2"/>
+    <tableColumn id="5" xr3:uid="{06443561-D2B9-4D83-B597-3A8EE28E1734}" name="Lineal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8422,86 +9765,86 @@
   <autoFilter ref="A5:F7" xr:uid="{045EA1B6-EDDA-4649-A56F-A30FF1651660}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9A29402D-3746-42EE-8314-F52C9E78007A}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{6FE7E2D4-702E-4ED6-B23A-D81C4CC2741F}" name="500" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{B06CE79C-CC11-47F5-956D-7040BAA79960}" name="1000" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{CA48ECF4-BA69-4EB4-A06E-88CB35287614}" name="2500" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C78848DB-6F67-4341-A8D1-F9D7AFD66930}" name="5000" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{6D375050-031F-41FE-9BB2-5064F99818DE}" name="10000" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6FE7E2D4-702E-4ED6-B23A-D81C4CC2741F}" name="500" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{B06CE79C-CC11-47F5-956D-7040BAA79960}" name="1000" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{CA48ECF4-BA69-4EB4-A06E-88CB35287614}" name="2500" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{C78848DB-6F67-4341-A8D1-F9D7AFD66930}" name="5000" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{6D375050-031F-41FE-9BB2-5064F99818DE}" name="10000" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B0DA5C2E-CB1B-4D2F-88F1-5BF7F3893401}" name="Tabla2418" displayName="Tabla2418" ref="A11:F16" totalsRowShown="0" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B0DA5C2E-CB1B-4D2F-88F1-5BF7F3893401}" name="Tabla2418" displayName="Tabla2418" ref="A11:F16" totalsRowShown="0" dataDxfId="64">
   <autoFilter ref="A11:F16" xr:uid="{FA4B38FC-5D89-4E91-8BB7-842364078A2B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{742A32C0-3D9B-4975-ACD1-041F4CE80238}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{4E298ED8-F4F8-47A4-BDD0-5EB8B2704BAB}" name="500" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{DB2E8922-1A9C-44F0-9BBD-513674EA79DC}" name="1000" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{6AC0721C-FD64-4FCD-9C3E-55D53CD1524A}" name="2500" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{7E711514-E440-4677-9CC8-E408F50DC1E5}" name="5000" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{BB44C987-1CEB-400D-8E32-566A9F4CA136}" name="10000" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{4E298ED8-F4F8-47A4-BDD0-5EB8B2704BAB}" name="500" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{DB2E8922-1A9C-44F0-9BBD-513674EA79DC}" name="1000" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{6AC0721C-FD64-4FCD-9C3E-55D53CD1524A}" name="2500" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{7E711514-E440-4677-9CC8-E408F50DC1E5}" name="5000" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{BB44C987-1CEB-400D-8E32-566A9F4CA136}" name="10000" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F9BCAF6D-CF7C-4A68-8353-ABF96AA49D0A}" name="Tabla24719" displayName="Tabla24719" ref="A20:F25" totalsRowShown="0" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F9BCAF6D-CF7C-4A68-8353-ABF96AA49D0A}" name="Tabla24719" displayName="Tabla24719" ref="A20:F25" totalsRowShown="0" dataDxfId="58">
   <autoFilter ref="A20:F25" xr:uid="{819384DC-C7B3-45DF-9578-6E73BF9F547F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7263DD3F-26E4-4503-A62F-44BEDE9F5870}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{E8949046-C153-4861-90C7-4005E7D41F8C}" name="500" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{FCC61A06-1B2D-479B-B714-5389D5E90F2E}" name="1000" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{1F33D0B6-3D21-4979-B7F3-B6D6FB0C05FE}" name="2500" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{77DF2905-9B42-47E1-88AD-FCDA58786738}" name="5000" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{F68C92DE-993C-47F7-BD97-47626B67C2B8}" name="10000" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{E8949046-C153-4861-90C7-4005E7D41F8C}" name="500" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{FCC61A06-1B2D-479B-B714-5389D5E90F2E}" name="1000" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{1F33D0B6-3D21-4979-B7F3-B6D6FB0C05FE}" name="2500" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{77DF2905-9B42-47E1-88AD-FCDA58786738}" name="5000" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{F68C92DE-993C-47F7-BD97-47626B67C2B8}" name="10000" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20FE12D7-C16D-47C9-A1E4-F69CF0E3A577}" name="Tabla2478206" displayName="Tabla2478206" ref="A29:F34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20FE12D7-C16D-47C9-A1E4-F69CF0E3A577}" name="Tabla2478206" displayName="Tabla2478206" ref="A29:F34" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A29:F34" xr:uid="{20FE12D7-C16D-47C9-A1E4-F69CF0E3A577}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DC3D7EC7-347C-4D09-BD7A-A80C5A01459A}" name="Tipo" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{04309B3E-5BB0-45DD-A98E-583CA2E45074}" name="500" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{4C3E4491-685E-4B0B-B668-EF89BB22D00D}" name="1000" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{8619EBE8-8D9D-4C16-A7C1-8FDF48C9284B}" name="2500" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{E1632529-8C39-4287-BF31-AAB439AB9F38}" name="5000" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{6834A407-A99A-47B4-98A2-EE0D06B920B8}" name="10000" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{DC3D7EC7-347C-4D09-BD7A-A80C5A01459A}" name="Tipo" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{04309B3E-5BB0-45DD-A98E-583CA2E45074}" name="500" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{4C3E4491-685E-4B0B-B668-EF89BB22D00D}" name="1000" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{8619EBE8-8D9D-4C16-A7C1-8FDF48C9284B}" name="2500" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{E1632529-8C39-4287-BF31-AAB439AB9F38}" name="5000" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{6834A407-A99A-47B4-98A2-EE0D06B920B8}" name="10000" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{045EA1B6-EDDA-4649-A56F-A30FF1651660}" name="Tabla2" displayName="Tabla2" ref="A5:F7" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{045EA1B6-EDDA-4649-A56F-A30FF1651660}" name="Tabla2" displayName="Tabla2" ref="A5:F7" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A5:F7" xr:uid="{045EA1B6-EDDA-4649-A56F-A30FF1651660}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2CB675C1-53CE-4870-A601-5CC0BFD27993}" name="Tipo" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{5266AE75-2A76-4914-9BF5-2594E8CAC29E}" name="500" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{A31A9828-3BC2-4704-BD99-ADE0224EFC0F}" name="1000" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{5C27B703-9625-4CAE-99BB-3709222DAA58}" name="2500" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{825CA175-D8CF-49FE-BC9F-B835D4B92595}" name="5000" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{5A16EB61-9F89-4E8D-91A1-8C0FB72E332E}" name="10000" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{2CB675C1-53CE-4870-A601-5CC0BFD27993}" name="Tipo" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{5266AE75-2A76-4914-9BF5-2594E8CAC29E}" name="500" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{A31A9828-3BC2-4704-BD99-ADE0224EFC0F}" name="1000" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{5C27B703-9625-4CAE-99BB-3709222DAA58}" name="2500" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{825CA175-D8CF-49FE-BC9F-B835D4B92595}" name="5000" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{5A16EB61-9F89-4E8D-91A1-8C0FB72E332E}" name="10000" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA4B38FC-5D89-4E91-8BB7-842364078A2B}" name="Tabla24" displayName="Tabla24" ref="A11:F16" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA4B38FC-5D89-4E91-8BB7-842364078A2B}" name="Tabla24" displayName="Tabla24" ref="A11:F16" totalsRowShown="0" dataDxfId="36">
   <autoFilter ref="A11:F16" xr:uid="{FA4B38FC-5D89-4E91-8BB7-842364078A2B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4229F568-CC60-475D-9BEF-400B87BF8A8E}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{C3A22CFE-3D87-47B1-8894-33FB017FF1C8}" name="500" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{DBEFAF40-C655-435B-8B8C-3003356FB8B4}" name="1000" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{D566334F-BC40-4439-8786-C32D211632D5}" name="2500" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D14AC3A2-FD21-4308-AEBA-7771C3AC86A3}" name="5000" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{FF719581-8050-4F84-A034-EB07A62705C2}" name="10000" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C3A22CFE-3D87-47B1-8894-33FB017FF1C8}" name="500" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{DBEFAF40-C655-435B-8B8C-3003356FB8B4}" name="1000" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{D566334F-BC40-4439-8786-C32D211632D5}" name="2500" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{D14AC3A2-FD21-4308-AEBA-7771C3AC86A3}" name="5000" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{FF719581-8050-4F84-A034-EB07A62705C2}" name="10000" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8512,11 +9855,11 @@
   <autoFilter ref="A29:F34" xr:uid="{8A9DF21C-EFAF-4B93-8549-92C673DD47A0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6B7B3FD4-00FD-4D85-AD98-3E0E718234B6}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{B153D4E7-D057-4506-9473-4A27331CBE33}" name="500" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{64104293-158B-447C-B8C6-41F9D3E7CD6C}" name="1000" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{F130A1B9-0B44-49E0-B030-376D41AF0CFF}" name="2500" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{E47B9AB1-CECF-417A-8AB7-C8F0A8BB3728}" name="5000" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{A8465012-2AE1-49EF-8684-D2097F21D80C}" name="10000" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{B153D4E7-D057-4506-9473-4A27331CBE33}" name="500" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{64104293-158B-447C-B8C6-41F9D3E7CD6C}" name="1000" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{F130A1B9-0B44-49E0-B030-376D41AF0CFF}" name="2500" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{E47B9AB1-CECF-417A-8AB7-C8F0A8BB3728}" name="5000" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{A8465012-2AE1-49EF-8684-D2097F21D80C}" name="10000" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8527,11 +9870,11 @@
   <autoFilter ref="A20:F25" xr:uid="{4265E843-8409-44FD-8BB0-DE87E675F4DE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D9673A69-0520-4517-A90F-ECEAC8BC063A}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{47700519-F382-47FF-A014-1EB51089E32E}" name="500" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{5BF5040A-8454-41C0-8EC0-FCA8BBDB3B82}" name="1000" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{93801AE4-84EC-46F8-B7A8-1CA257C0FD7F}" name="2500" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{C8763608-74BF-4CF0-9B8D-6FCBDF09A2E0}" name="5000" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{71A9E06D-EABC-42C6-96C5-1799AC03FEC5}" name="10000" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{47700519-F382-47FF-A014-1EB51089E32E}" name="500" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{5BF5040A-8454-41C0-8EC0-FCA8BBDB3B82}" name="1000" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{93801AE4-84EC-46F8-B7A8-1CA257C0FD7F}" name="2500" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{C8763608-74BF-4CF0-9B8D-6FCBDF09A2E0}" name="5000" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{71A9E06D-EABC-42C6-96C5-1799AC03FEC5}" name="10000" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8857,7 +10200,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8868,21 +10211,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8941,11 +10284,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8962,10 +10305,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A52CF0-BF7D-434C-BCB0-B0AFF510201C}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8977,24 +10320,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -9030,19 +10373,19 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="4">
         <v>168.852</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="4">
         <v>642.58000000000004</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>2368.1660000000002</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>6400.5349999999999</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="4">
         <v>9708.0360000000001</v>
       </c>
     </row>
@@ -9050,31 +10393,31 @@
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="4">
         <v>161</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="4">
         <v>632</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>2364</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="4">
         <v>6396</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="4">
         <v>9704</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -9128,7 +10471,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>38.131</v>
@@ -9148,7 +10491,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>50.113</v>
@@ -9168,7 +10511,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>44.122</v>
@@ -9188,7 +10531,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -9207,14 +10550,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -9250,89 +10593,89 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="13">
         <v>204.821</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="13">
         <v>398.34500000000003</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="13">
         <v>987.23800000000006</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <v>2050.6669999999999</v>
       </c>
       <c r="F21">
         <v>1839.7639999999999</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="19">
+        <v>17</v>
+      </c>
+      <c r="B22" s="13">
         <v>81.123000000000005</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="13">
         <v>162.64699999999999</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="13">
         <v>400.91199999999998</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="13">
         <v>810.245</v>
       </c>
       <c r="F22" s="3">
         <v>1166.4290000000001</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="19">
+        <v>18</v>
+      </c>
+      <c r="B23" s="13">
         <v>52.103999999999999</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <v>103.878</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="13">
         <v>255.42599999999999</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="13">
         <v>515.03200000000004</v>
       </c>
       <c r="F23" s="3">
         <v>391.70800000000003</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="19">
+        <v>13</v>
+      </c>
+      <c r="B24" s="13">
         <v>66.614000000000004</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="13">
         <v>133.983</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="13">
         <v>328.18299999999999</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="13">
         <v>662.923</v>
       </c>
       <c r="F24" s="3">
         <v>780.63699999999994</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -9349,17 +10692,17 @@
       <c r="F25">
         <v>34.159999999999997</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -9395,85 +10738,85 @@
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="13">
         <v>139.50200000000001</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="13">
         <v>289.714</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="13">
         <v>690.33600000000001</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="13">
         <v>1389.1210000000001</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="13">
         <v>1067.307</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="19">
+        <v>17</v>
+      </c>
+      <c r="B31" s="13">
         <v>52.344999999999999</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="13">
         <v>105.876</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="13">
         <v>258.98200000000003</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="13">
         <v>511.24099999999999</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="13">
         <v>780.63699999999994</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="19">
+        <v>18</v>
+      </c>
+      <c r="B32" s="13">
         <v>41.216000000000001</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="13">
         <v>83.739000000000004</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="13">
         <v>204.953</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="13">
         <v>407.34800000000001</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="13">
         <v>562.39099999999996</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="19">
+        <v>13</v>
+      </c>
+      <c r="B33" s="13">
         <v>46.78</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="13">
         <v>94.492999999999995</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="13">
         <v>231.21700000000001</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="13">
         <v>464.29500000000002</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="13">
         <v>671.51400000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4">
         <v>3.4</v>
@@ -9491,53 +10834,32 @@
         <v>20.9</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9561,10 +10883,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A1C49C-0165-4A09-A9C8-A44713263055}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:F34"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="B38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9574,24 +10896,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -9653,7 +10975,7 @@
       <c r="C7" s="4">
         <v>203</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>416</v>
       </c>
       <c r="E7" s="4">
@@ -9664,14 +10986,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -9707,111 +11029,111 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="3">
         <v>99.819000000000003</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="3">
         <v>195.67699999999999</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="3">
         <v>414.27800000000002</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="3">
         <v>549.73299999999995</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="3">
         <v>1103.404</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="14">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
         <v>31.501999999999999</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="3">
         <v>62.566000000000003</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="3">
         <v>130.14699999999999</v>
       </c>
       <c r="E13">
         <v>130.55600000000001</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="3">
         <v>265.47899999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="14">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
         <v>34.908000000000001</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="3">
         <v>74.272000000000006</v>
       </c>
       <c r="D14">
         <v>153.37700000000001</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="3">
         <v>159.04900000000001</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="3">
         <v>292.52199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
         <v>33.204999999999998</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="3">
         <v>68.418999999999997</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="3">
         <v>141.762</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="3">
         <v>144.80199999999999</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="3">
         <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="14">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16">
         <v>25.5</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="3">
         <v>50.5</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="3">
         <v>50.5</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="3">
         <v>100.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -9853,7 +11175,7 @@
       <c r="C21" s="3">
         <v>162.86699999999999</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="3">
         <v>289.07400000000001</v>
       </c>
       <c r="E21" s="3">
@@ -9865,7 +11187,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
         <v>54.02</v>
@@ -9885,7 +11207,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <v>106.155</v>
@@ -9905,7 +11227,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="3">
         <v>81.42</v>
@@ -9925,7 +11247,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -9944,14 +11266,14 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="A27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -10005,7 +11327,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
         <v>64.296999999999997</v>
@@ -10025,7 +11347,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3">
         <v>110.28400000000001</v>
@@ -10042,11 +11364,11 @@
       <c r="F32" s="3">
         <v>149.35499999999999</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3">
         <v>86.328000000000003</v>
@@ -10066,7 +11388,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4">
         <v>3.4</v>
@@ -10083,6 +11405,34 @@
       <c r="F34" s="4">
         <v>20.9</v>
       </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10107,10 +11457,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE498B1-40D5-48CB-A0E8-B24CB6B26F4A}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="B34:D34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10121,24 +11471,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -10174,19 +11524,19 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="4">
         <v>886.16600000000005</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="4">
         <v>1260.0830000000001</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>3110.3850000000002</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>3955.3310000000001</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="4">
         <v>9680.4040000000005</v>
       </c>
     </row>
@@ -10194,31 +11544,31 @@
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="4">
         <v>881</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="4">
         <v>1256</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>3106</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="4">
         <v>3951</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="4">
         <v>9667</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -10272,7 +11622,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>29.600999999999999</v>
@@ -10292,7 +11642,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>33.761000000000003</v>
@@ -10312,7 +11662,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <f>AVERAGE(B13:B14)</f>
@@ -10337,33 +11687,33 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="17">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>25.5</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <v>50.5</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>50.5</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="12">
         <v>100.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -10408,7 +11758,7 @@
       <c r="D21" s="4">
         <v>889.43499999999995</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="4">
         <v>1431.2850000000001</v>
       </c>
       <c r="F21" s="4">
@@ -10417,7 +11767,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4">
         <v>11.781000000000001</v>
@@ -10437,7 +11787,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4">
         <v>22.248000000000001</v>
@@ -10457,7 +11807,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4">
         <v>15.194000000000001</v>
@@ -10477,7 +11827,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4">
         <v>5</v>
@@ -10503,14 +11853,14 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -10564,7 +11914,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="4">
         <v>14.632999999999999</v>
@@ -10584,7 +11934,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="4">
         <v>58.651000000000003</v>
@@ -10604,7 +11954,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4">
         <v>40.982999999999997</v>
@@ -10624,7 +11974,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4">
         <v>3.4</v>
@@ -10640,6 +11990,106 @@
       </c>
       <c r="F34" s="4">
         <v>20.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>1</v>
+      </c>
+      <c r="B38" s="30">
+        <v>886.16600000000005</v>
+      </c>
+      <c r="C38" s="30">
+        <v>1260.0830000000001</v>
+      </c>
+      <c r="D38" s="30">
+        <v>3110.3850000000002</v>
+      </c>
+      <c r="E38" s="30">
+        <v>3955.3310000000001</v>
+      </c>
+      <c r="F38" s="31">
+        <v>9680.4040000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>3</v>
+      </c>
+      <c r="B39" s="28">
+        <v>903.11400000000003</v>
+      </c>
+      <c r="C39" s="28">
+        <v>1099.982</v>
+      </c>
+      <c r="D39" s="28">
+        <v>2664.6060000000002</v>
+      </c>
+      <c r="E39" s="28">
+        <v>3390.98</v>
+      </c>
+      <c r="F39" s="29">
+        <v>8473.5830000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>7</v>
+      </c>
+      <c r="B40" s="30">
+        <v>189.642</v>
+      </c>
+      <c r="C40" s="30">
+        <v>381.85199999999998</v>
+      </c>
+      <c r="D40" s="30">
+        <v>889.43499999999995</v>
+      </c>
+      <c r="E40" s="30">
+        <v>1431.2850000000001</v>
+      </c>
+      <c r="F40" s="31">
+        <v>2485.9430000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>11</v>
+      </c>
+      <c r="B41" s="30">
+        <v>210.149</v>
+      </c>
+      <c r="C41" s="30">
+        <v>335.67599999999999</v>
+      </c>
+      <c r="D41" s="30">
+        <v>687.70699999999999</v>
+      </c>
+      <c r="E41" s="30">
+        <v>1319.1659999999999</v>
+      </c>
+      <c r="F41" s="31">
+        <v>2163.703</v>
       </c>
     </row>
   </sheetData>
@@ -10663,4 +12113,326 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D647A802-EDAA-4821-A904-AC39BE07C08A}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="B18:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23">
+        <f>'CartPole-v1'!F6/'CartPole-v1'!F12</f>
+        <v>5.7301356918015331</v>
+      </c>
+      <c r="C4" s="23">
+        <f>'FlappyBird-v0'!F6/'FlappyBird-v0'!F12</f>
+        <v>2.2211737495967023</v>
+      </c>
+      <c r="D4" s="23">
+        <f>'LunarLander-v2'!F6/'LunarLander-v2'!F12</f>
+        <v>1.1424215706626111</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24">
+        <f>'CartPole-v1'!F6/'CartPole-v1'!F21</f>
+        <v>5.2767833265571022</v>
+      </c>
+      <c r="C5" s="23">
+        <f>'FlappyBird-v0'!F6/'FlappyBird-v0'!F21</f>
+        <v>4.0900909019603917</v>
+      </c>
+      <c r="D5" s="23">
+        <f>'LunarLander-v2'!F6/'LunarLander-v2'!F21</f>
+        <v>3.8940571042859791</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23">
+        <f>'CartPole-v1'!F6/'CartPole-v1'!F30</f>
+        <v>9.0958234135070786</v>
+      </c>
+      <c r="C6" s="23">
+        <f>Tabla2[[#This Row],[10000]]/'FlappyBird-v0'!F30</f>
+        <v>4.68615941169947</v>
+      </c>
+      <c r="D6" s="23">
+        <f>Tabla213[[#This Row],[10000]]/'LunarLander-v2'!F30</f>
+        <v>4.4739985108861982</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f>B3/Tabla911[[#This Row],[Nodos]]</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23">
+        <f>B4/Tabla911[[#This Row],[Nodos]]</f>
+        <v>1.9100452306005111</v>
+      </c>
+      <c r="C11" s="23">
+        <f>C4/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.74039124986556748</v>
+      </c>
+      <c r="D11" s="23">
+        <f>D4/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.38080719022087034</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="24">
+        <f>B5/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.7538261895081575</v>
+      </c>
+      <c r="C12" s="23">
+        <f>C5/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.58429870028005593</v>
+      </c>
+      <c r="D12" s="23">
+        <f>D5/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.55629387204085412</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23">
+        <f>B6/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.82689303759155264</v>
+      </c>
+      <c r="C13" s="23">
+        <f>C6/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.4260144919726791</v>
+      </c>
+      <c r="D13" s="23">
+        <f>D6/Tabla911[[#This Row],[Nodos]]</f>
+        <v>0.40672713735329075</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>3</v>
+      </c>
+      <c r="B18" s="25">
+        <f>'CartPole-v1'!F12/('CartPole-v1'!F12+'CartPole-v1'!F15)</f>
+        <v>0.82232000842605146</v>
+      </c>
+      <c r="C18" s="25">
+        <f>'FlappyBird-v0'!F12/('FlappyBird-v0'!F15+'FlappyBird-v0'!F12)</f>
+        <v>0.7981776673099904</v>
+      </c>
+      <c r="D18" s="25">
+        <f>'LunarLander-v2'!F12/('LunarLander-v2'!F12+'LunarLander-v2'!F15)</f>
+        <v>0.94051749877074076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26">
+        <f>('CartPole-v1'!F21/('CartPole-v1'!F21+'CartPole-v1'!F24))</f>
+        <v>0.70209254232462892</v>
+      </c>
+      <c r="C19" s="27">
+        <f>'FlappyBird-v0'!F21/('FlappyBird-v0'!F21+'FlappyBird-v0'!F24)</f>
+        <v>0.71016796086127931</v>
+      </c>
+      <c r="D19" s="27">
+        <f>'LunarLander-v2'!F21/('LunarLander-v2'!F21+'LunarLander-v2'!F24)</f>
+        <v>0.95383684488400211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>11</v>
+      </c>
+      <c r="B20" s="25">
+        <f>'CartPole-v1'!F30/('CartPole-v1'!F30+'CartPole-v1'!F33)</f>
+        <v>0.61381073727542979</v>
+      </c>
+      <c r="C20" s="25">
+        <f>('FlappyBird-v0'!F30/('FlappyBird-v0'!F30+'FlappyBird-v0'!F33))</f>
+        <v>0.80299026735225609</v>
+      </c>
+      <c r="D20" s="25">
+        <f>'LunarLander-v2'!F30/('LunarLander-v2'!F30+'LunarLander-v2'!F33)</f>
+        <v>0.93550526596597905</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>